--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efnb2-Ephb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efnb2-Ephb2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.94432133333333</v>
+        <v>42.75280866666666</v>
       </c>
       <c r="H2">
-        <v>62.832964</v>
+        <v>128.258426</v>
       </c>
       <c r="I2">
-        <v>0.7396577289668299</v>
+        <v>0.8529286054750734</v>
       </c>
       <c r="J2">
-        <v>0.7396577289668298</v>
+        <v>0.8529286054750735</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.005965999999999999</v>
+        <v>0.0006136666666666667</v>
       </c>
       <c r="N2">
-        <v>0.017898</v>
+        <v>0.001841</v>
       </c>
       <c r="O2">
-        <v>0.00125947234315407</v>
+        <v>0.000129696697123199</v>
       </c>
       <c r="P2">
-        <v>0.001259472343154069</v>
+        <v>0.000129696697123199</v>
       </c>
       <c r="Q2">
-        <v>0.1249538210746667</v>
+        <v>0.0262359735851111</v>
       </c>
       <c r="R2">
-        <v>1.124584389672</v>
+        <v>0.236123762266</v>
       </c>
       <c r="S2">
-        <v>0.000931578453033871</v>
+        <v>0.0001106220230120131</v>
       </c>
       <c r="T2">
-        <v>0.0009315784530338707</v>
+        <v>0.0001106220230120131</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.94432133333333</v>
+        <v>42.75280866666666</v>
       </c>
       <c r="H3">
-        <v>62.832964</v>
+        <v>128.258426</v>
       </c>
       <c r="I3">
-        <v>0.7396577289668299</v>
+        <v>0.8529286054750734</v>
       </c>
       <c r="J3">
-        <v>0.7396577289668298</v>
+        <v>0.8529286054750735</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>11.465328</v>
       </c>
       <c r="O3">
-        <v>0.8068087787009702</v>
+        <v>0.8077214410831794</v>
       </c>
       <c r="P3">
-        <v>0.8068087787009701</v>
+        <v>0.8077214410831794</v>
       </c>
       <c r="Q3">
-        <v>80.04450460802134</v>
+        <v>163.3916580948586</v>
       </c>
       <c r="R3">
-        <v>720.4005414721921</v>
+        <v>1470.524922853728</v>
       </c>
       <c r="S3">
-        <v>0.5967623489644613</v>
+        <v>0.6889287223553929</v>
       </c>
       <c r="T3">
-        <v>0.5967623489644611</v>
+        <v>0.688928722355393</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.94432133333333</v>
+        <v>42.75280866666666</v>
       </c>
       <c r="H4">
-        <v>62.832964</v>
+        <v>128.258426</v>
       </c>
       <c r="I4">
-        <v>0.7396577289668299</v>
+        <v>0.8529286054750734</v>
       </c>
       <c r="J4">
-        <v>0.7396577289668298</v>
+        <v>0.8529286054750735</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>2.727487</v>
       </c>
       <c r="O4">
-        <v>0.1919317489558758</v>
+        <v>0.1921488622196973</v>
       </c>
       <c r="P4">
-        <v>0.1919317489558757</v>
+        <v>0.1921488622196973</v>
       </c>
       <c r="Q4">
-        <v>19.04178805349644</v>
+        <v>38.86924328394021</v>
       </c>
       <c r="R4">
-        <v>171.376092481468</v>
+        <v>349.823189555462</v>
       </c>
       <c r="S4">
-        <v>0.1419638015493348</v>
+        <v>0.1638892610966685</v>
       </c>
       <c r="T4">
-        <v>0.1419638015493347</v>
+        <v>0.1638892610966685</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>6.981284</v>
       </c>
       <c r="I5">
-        <v>0.08218235047311259</v>
+        <v>0.04642608686423023</v>
       </c>
       <c r="J5">
-        <v>0.08218235047311258</v>
+        <v>0.04642608686423023</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.005965999999999999</v>
+        <v>0.0006136666666666667</v>
       </c>
       <c r="N5">
-        <v>0.017898</v>
+        <v>0.001841</v>
       </c>
       <c r="O5">
-        <v>0.00125947234315407</v>
+        <v>0.000129696697123199</v>
       </c>
       <c r="P5">
-        <v>0.001259472343154069</v>
+        <v>0.000129696697123199</v>
       </c>
       <c r="Q5">
-        <v>0.01388344678133333</v>
+        <v>0.001428060427111111</v>
       </c>
       <c r="R5">
-        <v>0.124951021032</v>
+        <v>0.012852543844</v>
       </c>
       <c r="S5">
-        <v>0.0001035063975162801</v>
+        <v>6.021310126645398E-06</v>
       </c>
       <c r="T5">
-        <v>0.00010350639751628</v>
+        <v>6.021310126645398E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>6.981284</v>
       </c>
       <c r="I6">
-        <v>0.08218235047311259</v>
+        <v>0.04642608686423023</v>
       </c>
       <c r="J6">
-        <v>0.08218235047311258</v>
+        <v>0.04642608686423023</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>11.465328</v>
       </c>
       <c r="O6">
-        <v>0.8068087787009702</v>
+        <v>0.8077214410831794</v>
       </c>
       <c r="P6">
-        <v>0.8068087787009701</v>
+        <v>0.8077214410831794</v>
       </c>
       <c r="Q6">
-        <v>8.893634546794669</v>
+        <v>8.893634546794667</v>
       </c>
       <c r="R6">
         <v>80.04271092115201</v>
       </c>
       <c r="S6">
-        <v>0.06630544181598708</v>
+        <v>0.03749934578582891</v>
       </c>
       <c r="T6">
-        <v>0.06630544181598705</v>
+        <v>0.03749934578582891</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>6.981284</v>
       </c>
       <c r="I7">
-        <v>0.08218235047311259</v>
+        <v>0.04642608686423023</v>
       </c>
       <c r="J7">
-        <v>0.08218235047311258</v>
+        <v>0.04642608686423023</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>2.727487</v>
       </c>
       <c r="O7">
-        <v>0.1919317489558758</v>
+        <v>0.1921488622196973</v>
       </c>
       <c r="P7">
-        <v>0.1919317489558757</v>
+        <v>0.1921488622196973</v>
       </c>
       <c r="Q7">
         <v>2.115706817034222</v>
@@ -880,10 +880,10 @@
         <v>19.041361353308</v>
       </c>
       <c r="S7">
-        <v>0.01577340225960924</v>
+        <v>0.008920719768274674</v>
       </c>
       <c r="T7">
-        <v>0.01577340225960924</v>
+        <v>0.008920719768274674</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.044818</v>
+        <v>5.044817999999999</v>
       </c>
       <c r="H8">
         <v>15.134454</v>
       </c>
       <c r="I8">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
       <c r="J8">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -924,28 +924,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.005965999999999999</v>
+        <v>0.0006136666666666667</v>
       </c>
       <c r="N8">
-        <v>0.017898</v>
+        <v>0.001841</v>
       </c>
       <c r="O8">
-        <v>0.00125947234315407</v>
+        <v>0.000129696697123199</v>
       </c>
       <c r="P8">
-        <v>0.001259472343154069</v>
+        <v>0.000129696697123199</v>
       </c>
       <c r="Q8">
-        <v>0.030097384188</v>
+        <v>0.003095836645999999</v>
       </c>
       <c r="R8">
-        <v>0.270876457692</v>
+        <v>0.027862529814</v>
       </c>
       <c r="S8">
-        <v>0.0002243874926039186</v>
+        <v>1.305336398454051E-05</v>
       </c>
       <c r="T8">
-        <v>0.0002243874926039185</v>
+        <v>1.305336398454051E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.044818</v>
+        <v>5.044817999999999</v>
       </c>
       <c r="H9">
         <v>15.134454</v>
       </c>
       <c r="I9">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
       <c r="J9">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>11.465328</v>
       </c>
       <c r="O9">
-        <v>0.8068087787009702</v>
+        <v>0.8077214410831794</v>
       </c>
       <c r="P9">
-        <v>0.8068087787009701</v>
+        <v>0.8077214410831794</v>
       </c>
       <c r="Q9">
         <v>19.280164356768</v>
@@ -1004,10 +1004,10 @@
         <v>173.521479210912</v>
       </c>
       <c r="S9">
-        <v>0.1437409879205219</v>
+        <v>0.08129337294195757</v>
       </c>
       <c r="T9">
-        <v>0.1437409879205219</v>
+        <v>0.08129337294195757</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.044818</v>
+        <v>5.044817999999999</v>
       </c>
       <c r="H10">
         <v>15.134454</v>
       </c>
       <c r="I10">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
       <c r="J10">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>2.727487</v>
       </c>
       <c r="O10">
-        <v>0.1919317489558758</v>
+        <v>0.1921488622196973</v>
       </c>
       <c r="P10">
-        <v>0.1919317489558757</v>
+        <v>0.1921488622196973</v>
       </c>
       <c r="Q10">
-        <v>4.586558504122</v>
+        <v>4.586558504121999</v>
       </c>
       <c r="R10">
-        <v>41.27902653709801</v>
+        <v>41.279026537098</v>
       </c>
       <c r="S10">
-        <v>0.03419454514693173</v>
+        <v>0.01933888135475418</v>
       </c>
       <c r="T10">
-        <v>0.03419454514693172</v>
+        <v>0.01933888135475418</v>
       </c>
     </row>
   </sheetData>
